--- a/listadoStocks.xlsx
+++ b/listadoStocks.xlsx
@@ -35,37 +35,37 @@
     <t>Triana</t>
   </si>
   <si>
+    <t>A&amp;L</t>
+  </si>
+  <si>
+    <t>Onix</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Succube</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>San Pablo</t>
+  </si>
+  <si>
     <t>Full Moon</t>
   </si>
   <si>
     <t>Green</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>8</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>A&amp;L</t>
-  </si>
-  <si>
-    <t>Succube</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>San Pablo</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Blue</t>
   </si>
   <si>
     <t>9</t>
@@ -192,33 +192,33 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -229,30 +229,30 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
